--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Models to Compare Fractions 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Models to Compare Fractions 1.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
